--- a/100runs/run024/NotionalETEOutput024.xlsx
+++ b/100runs/run024/NotionalETEOutput024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="15">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,13 +49,16 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND_State_Update</t>
+    <t>Missile_SOMERSAULT_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND_10.MISSILE_HIGHWIND_10</t>
+    <t>MISSILE_SOMERSAULT_355.MISSILE_SOMERSAULT_355</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND</t>
+    <t>MISSILE_SOMERSAULT_390.MISSILE_SOMERSAULT_390</t>
+  </si>
+  <si>
+    <t>MISSILE_SOMERSAULT</t>
   </si>
 </sst>
 </file>
@@ -413,7 +416,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K54"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -465,28 +468,28 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>183.9337827542892</v>
+        <v>1116577.973221041</v>
       </c>
       <c r="G2">
-        <v>-78.01430102478994</v>
+        <v>4841124.15195013</v>
       </c>
       <c r="H2">
-        <v>1003.188844590496</v>
+        <v>3985225.880282786</v>
       </c>
       <c r="I2">
-        <v>-694.0479212249782</v>
+        <v>1114862.330317376</v>
       </c>
       <c r="J2">
-        <v>1677.437760501099</v>
+        <v>4843220.125566527</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984371.049183117</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -500,28 +503,28 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>183.9337827542892</v>
+        <v>1116577.973221041</v>
       </c>
       <c r="G3">
-        <v>-78.01430102478994</v>
+        <v>4841124.15195013</v>
       </c>
       <c r="H3">
-        <v>1003.188844590496</v>
+        <v>3985225.880282786</v>
       </c>
       <c r="I3">
-        <v>-680.3455671926977</v>
+        <v>1114891.944339683</v>
       </c>
       <c r="J3">
-        <v>1636.632754893982</v>
+        <v>4843171.474009925</v>
       </c>
       <c r="K3">
-        <v>430.2410399203694</v>
+        <v>3984674.845230602</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -535,28 +538,28 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>183.9337827542892</v>
+        <v>1116577.973221041</v>
       </c>
       <c r="G4">
-        <v>-78.01430102478994</v>
+        <v>4841124.15195013</v>
       </c>
       <c r="H4">
-        <v>1003.188844590496</v>
+        <v>3985225.880282786</v>
       </c>
       <c r="I4">
-        <v>-666.3058052983071</v>
+        <v>1114922.287580044</v>
       </c>
       <c r="J4">
-        <v>1595.827749286866</v>
+        <v>4843122.822453322</v>
       </c>
       <c r="K4">
-        <v>839.0282894361823</v>
+        <v>3984963.492614608</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -570,28 +573,28 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>183.9337827542892</v>
+        <v>1116577.973221041</v>
       </c>
       <c r="G5">
-        <v>-78.01430102478994</v>
+        <v>4841124.15195013</v>
       </c>
       <c r="H5">
-        <v>1003.188844590496</v>
+        <v>3985225.880282786</v>
       </c>
       <c r="I5">
-        <v>-651.920327183611</v>
+        <v>1114953.377994784</v>
       </c>
       <c r="J5">
-        <v>1555.022743679749</v>
+        <v>4843074.17089672</v>
       </c>
       <c r="K5">
-        <v>1226.361748547441</v>
+        <v>3985236.991335135</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -605,28 +608,28 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>183.9337827542892</v>
+        <v>1116577.973221041</v>
       </c>
       <c r="G6">
-        <v>-78.01430102478994</v>
+        <v>4841124.15195013</v>
       </c>
       <c r="H6">
-        <v>1003.188844590496</v>
+        <v>3985225.880282786</v>
       </c>
       <c r="I6">
-        <v>-637.1806199047379</v>
+        <v>1114985.233982385</v>
       </c>
       <c r="J6">
-        <v>1514.217738072633</v>
+        <v>4843025.519340118</v>
       </c>
       <c r="K6">
-        <v>1592.241417254145</v>
+        <v>3985495.341392185</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -640,28 +643,28 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>183.9337827542892</v>
+        <v>1116577.973221041</v>
       </c>
       <c r="G7">
-        <v>-78.01430102478994</v>
+        <v>4841124.15195013</v>
       </c>
       <c r="H7">
-        <v>1003.188844590496</v>
+        <v>3985225.880282786</v>
       </c>
       <c r="I7">
-        <v>-622.0779608944043</v>
+        <v>1115017.874394373</v>
       </c>
       <c r="J7">
-        <v>1473.412732465516</v>
+        <v>4842976.867783516</v>
       </c>
       <c r="K7">
-        <v>1936.667295556295</v>
+        <v>3985738.542785755</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -675,28 +678,28 @@
         <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>183.9337827542892</v>
+        <v>1116577.973221041</v>
       </c>
       <c r="G8">
-        <v>-78.01430102478994</v>
+        <v>4841124.15195013</v>
       </c>
       <c r="H8">
-        <v>1003.188844590496</v>
+        <v>3985225.880282786</v>
       </c>
       <c r="I8">
-        <v>-606.6034128001329</v>
+        <v>1115051.318546478</v>
       </c>
       <c r="J8">
-        <v>1432.607726858399</v>
+        <v>4842928.216226913</v>
       </c>
       <c r="K8">
-        <v>2259.639383453889</v>
+        <v>3985966.595515846</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -710,28 +713,28 @@
         <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>183.9337827542892</v>
+        <v>1116577.973221041</v>
       </c>
       <c r="G9">
-        <v>-78.01430102478994</v>
+        <v>4841124.15195013</v>
       </c>
       <c r="H9">
-        <v>1003.188844590496</v>
+        <v>3985225.880282786</v>
       </c>
       <c r="I9">
-        <v>-590.7478181953634</v>
+        <v>1115085.58623006</v>
       </c>
       <c r="J9">
-        <v>1391.802721251282</v>
+        <v>4842879.564670311</v>
       </c>
       <c r="K9">
-        <v>2561.157680946929</v>
+        <v>3986179.499582459</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -745,28 +748,28 @@
         <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>183.9337827542892</v>
+        <v>1116577.973221041</v>
       </c>
       <c r="G10">
-        <v>-65.13194396749421</v>
+        <v>4841140.664767938</v>
       </c>
       <c r="H10">
-        <v>1003.188844590496</v>
+        <v>3985225.880282786</v>
       </c>
       <c r="I10">
-        <v>-574.501794160331</v>
+        <v>1115120.697723825</v>
       </c>
       <c r="J10">
-        <v>1350.997715644166</v>
+        <v>4842830.91311371</v>
       </c>
       <c r="K10">
-        <v>2841.222188035413</v>
+        <v>3986377.254985593</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -780,28 +783,28 @@
         <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>142.7540724810515</v>
+        <v>1116529.292680406</v>
       </c>
       <c r="G11">
-        <v>-52.24958691019848</v>
+        <v>4841157.177585744</v>
       </c>
       <c r="H11">
-        <v>1235.921906021762</v>
+        <v>3985425.134567162</v>
       </c>
       <c r="I11">
-        <v>-557.8557267295038</v>
+        <v>1115156.673805822</v>
       </c>
       <c r="J11">
-        <v>1310.192710037049</v>
+        <v>4842782.261557107</v>
       </c>
       <c r="K11">
-        <v>3099.832904719342</v>
+        <v>3986559.861725248</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -815,28 +818,28 @@
         <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>118.5630584927907</v>
+        <v>1116500.695304862</v>
       </c>
       <c r="G12">
-        <v>-39.36722985290277</v>
+        <v>4841173.690403553</v>
       </c>
       <c r="H12">
-        <v>1374.549619830851</v>
+        <v>3985543.820609186</v>
       </c>
       <c r="I12">
-        <v>-540.7997652022939</v>
+        <v>1115193.535765741</v>
       </c>
       <c r="J12">
-        <v>1269.387704429932</v>
+        <v>4842733.610000504</v>
       </c>
       <c r="K12">
-        <v>3336.989830998717</v>
+        <v>3986727.319801425</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -850,28 +853,28 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>103.2919157208208</v>
+        <v>1116482.642543409</v>
       </c>
       <c r="G13">
-        <v>-26.48487279560703</v>
+        <v>4841190.20322136</v>
       </c>
       <c r="H13">
-        <v>1473.617477401219</v>
+        <v>3985628.637501739</v>
       </c>
       <c r="I13">
-        <v>-523.3238163136729</v>
+        <v>1115231.30541751</v>
       </c>
       <c r="J13">
-        <v>1228.582698822816</v>
+        <v>4842684.958443902</v>
       </c>
       <c r="K13">
-        <v>3552.692966873538</v>
+        <v>3986879.629214123</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -885,28 +888,28 @@
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>92.64188274085674</v>
+        <v>1116470.052620853</v>
       </c>
       <c r="G14">
-        <v>-13.6025157383113</v>
+        <v>4841206.716039167</v>
       </c>
       <c r="H14">
-        <v>1550.761565015622</v>
+        <v>3985694.684370528</v>
       </c>
       <c r="I14">
-        <v>-505.4175382612481</v>
+        <v>1115270.005112207</v>
       </c>
       <c r="J14">
-        <v>1187.777693215699</v>
+        <v>4842636.306887301</v>
       </c>
       <c r="K14">
-        <v>3746.942312343804</v>
+        <v>3987016.789963343</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -920,28 +923,28 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>84.69663920570504</v>
+        <v>1116460.6601616</v>
       </c>
       <c r="G15">
-        <v>-0.7201586810155836</v>
+        <v>4841223.228856974</v>
       </c>
       <c r="H15">
-        <v>1613.94855661269</v>
+        <v>3985748.781879129</v>
       </c>
       <c r="I15">
-        <v>-487.0703345852561</v>
+        <v>1115309.657751282</v>
       </c>
       <c r="J15">
-        <v>1146.972687608582</v>
+        <v>4842587.655330698</v>
       </c>
       <c r="K15">
-        <v>3919.737867409513</v>
+        <v>3987138.802049083</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -955,28 +958,28 @@
         <v>12</v>
       </c>
       <c r="D16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>78.48456828158234</v>
+        <v>1116453.316570083</v>
       </c>
       <c r="G16">
-        <v>12.16219837628015</v>
+        <v>4841239.741674782</v>
       </c>
       <c r="H16">
-        <v>1667.463326068573</v>
+        <v>3985794.598519987</v>
       </c>
       <c r="I16">
-        <v>-468.2713478978607</v>
+        <v>1115350.286800115</v>
       </c>
       <c r="J16">
-        <v>1106.167682001465</v>
+        <v>4842539.003774095</v>
       </c>
       <c r="K16">
-        <v>4071.079632070669</v>
+        <v>3987245.665471345</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -990,28 +993,28 @@
         <v>12</v>
       </c>
       <c r="D17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>73.45855058825165</v>
+        <v>1116447.375069841</v>
       </c>
       <c r="G17">
-        <v>25.04455543357588</v>
+        <v>4841256.254492589</v>
       </c>
       <c r="H17">
-        <v>1713.87764207952</v>
+        <v>3985834.336111478</v>
       </c>
       <c r="I17">
-        <v>-449.0094534580386</v>
+        <v>1115391.916301897</v>
       </c>
       <c r="J17">
-        <v>1065.362676394349</v>
+        <v>4842490.352217494</v>
       </c>
       <c r="K17">
-        <v>4200.967606327269</v>
+        <v>3987337.380230128</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1025,28 +1028,28 @@
         <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>69.28516503235647</v>
+        <v>1116442.441507564</v>
       </c>
       <c r="G18">
-        <v>37.92691249087159</v>
+        <v>4841272.767310397</v>
       </c>
       <c r="H18">
-        <v>1754.856890248955</v>
+        <v>3985869.420472582</v>
       </c>
       <c r="I18">
-        <v>-429.2732525882541</v>
+        <v>1115434.570891863</v>
       </c>
       <c r="J18">
-        <v>1024.557670787232</v>
+        <v>4842441.700660892</v>
       </c>
       <c r="K18">
-        <v>4309.401790179315</v>
+        <v>3987413.946325433</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1060,28 +1063,28 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>65.74853478198264</v>
+        <v>1116438.26068474</v>
       </c>
       <c r="G19">
-        <v>50.80926954816734</v>
+        <v>4841289.280128203</v>
       </c>
       <c r="H19">
-        <v>1791.54156356876</v>
+        <v>3985900.828035758</v>
       </c>
       <c r="I19">
-        <v>-409.0510659290229</v>
+        <v>1115478.275811865</v>
       </c>
       <c r="J19">
-        <v>983.7526651801155</v>
+        <v>4842393.049104289</v>
       </c>
       <c r="K19">
-        <v>4396.382183626806</v>
+        <v>3987475.363757259</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1095,28 +1098,28 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>62.70207285622827</v>
+        <v>1116434.659313759</v>
       </c>
       <c r="G20">
-        <v>63.69162660546306</v>
+        <v>4841305.792946012</v>
       </c>
       <c r="H20">
-        <v>1824.747019275392</v>
+        <v>3985929.25686866</v>
       </c>
       <c r="I20">
-        <v>-388.3309265273786</v>
+        <v>1115523.056925314</v>
       </c>
       <c r="J20">
-        <v>942.947659572999</v>
+        <v>4842344.397547686</v>
       </c>
       <c r="K20">
-        <v>4461.908786669742</v>
+        <v>3987521.632525607</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1130,28 +1133,28 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>60.04235417907324</v>
+        <v>1116431.515130804</v>
       </c>
       <c r="G21">
-        <v>76.57398366275878</v>
+        <v>4841322.305763819</v>
       </c>
       <c r="H21">
-        <v>1855.076411593105</v>
+        <v>3985955.223361451</v>
       </c>
       <c r="I21">
-        <v>-367.1005727551477</v>
+        <v>1115568.940732484</v>
       </c>
       <c r="J21">
-        <v>902.1426539658822</v>
+        <v>4842295.745991085</v>
       </c>
       <c r="K21">
-        <v>4505.981599308123</v>
+        <v>3987552.752630475</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1165,28 +1168,28 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>57.69407396941494</v>
+        <v>1116428.739114426</v>
       </c>
       <c r="G22">
-        <v>89.45634072005451</v>
+        <v>4841338.818581626</v>
       </c>
       <c r="H22">
-        <v>1882.988485805602</v>
+        <v>3985979.120268656</v>
       </c>
       <c r="I22">
-        <v>-345.3474410528427</v>
+        <v>1115615.954386192</v>
       </c>
       <c r="J22">
-        <v>861.3376483587656</v>
+        <v>4842247.094434482</v>
       </c>
       <c r="K22">
-        <v>4528.60062154195</v>
+        <v>3987568.724071865</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1200,28 +1203,28 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>55.6009416285109</v>
+        <v>1116426.264720767</v>
       </c>
       <c r="G23">
-        <v>102.3386977773502</v>
+        <v>4841355.331399433</v>
       </c>
       <c r="H23">
-        <v>1908.840290099837</v>
+        <v>3986001.253276887</v>
       </c>
       <c r="I23">
-        <v>-323.0586584948828</v>
+        <v>1115664.125707872</v>
       </c>
       <c r="J23">
-        <v>820.5326427516488</v>
+        <v>4842198.44287788</v>
       </c>
       <c r="K23">
-        <v>4529.765853371221</v>
+        <v>3987569.546849776</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1235,28 +1238,28 @@
         <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>53.71993165391258</v>
+        <v>1116424.041087286</v>
       </c>
       <c r="G24">
-        <v>115.221054834646</v>
+        <v>4841371.844217242</v>
       </c>
       <c r="H24">
-        <v>1932.915177796749</v>
+        <v>3986021.864978938</v>
       </c>
       <c r="I24">
-        <v>-300.2210351717371</v>
+        <v>1115713.483204032</v>
       </c>
       <c r="J24">
-        <v>779.7276371445322</v>
+        <v>4842149.791321278</v>
       </c>
       <c r="K24">
-        <v>4509.477294795937</v>
+        <v>3987555.220964208</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1270,28 +1273,28 @@
         <v>12</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>52.01752275827732</v>
+        <v>1116422.028586837</v>
       </c>
       <c r="G25">
-        <v>128.1034118919417</v>
+        <v>4841388.357035048</v>
       </c>
       <c r="H25">
-        <v>1955.441789222506</v>
+        <v>3986041.151125098</v>
       </c>
       <c r="I25">
-        <v>-276.821056384487</v>
+        <v>1115764.056083126</v>
       </c>
       <c r="J25">
-        <v>738.9226315374156</v>
+        <v>4842101.139764676</v>
       </c>
       <c r="K25">
-        <v>4467.7349458161</v>
+        <v>3987525.746415162</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1305,28 +1308,28 @@
         <v>12</v>
       </c>
       <c r="D26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>50.46716158247168</v>
+        <v>1116420.195829401</v>
       </c>
       <c r="G26">
-        <v>140.9857689492374</v>
+        <v>4841404.869852856</v>
       </c>
       <c r="H26">
-        <v>1976.607290034495</v>
+        <v>3986059.271957144</v>
       </c>
       <c r="I26">
-        <v>-252.8448746471866</v>
+        <v>1115815.874272842</v>
       </c>
       <c r="J26">
-        <v>698.1176259302988</v>
+        <v>4842052.488208073</v>
       </c>
       <c r="K26">
-        <v>4404.538806431706</v>
+        <v>3987481.123202637</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1340,28 +1343,28 @@
         <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>49.04750656083162</v>
+        <v>1116418.517586074</v>
       </c>
       <c r="G27">
-        <v>153.8681260065331</v>
+        <v>4841421.382670662</v>
       </c>
       <c r="H27">
-        <v>1996.566832989861</v>
+        <v>3986076.360309024</v>
       </c>
       <c r="I27">
-        <v>-228.2783014922881</v>
+        <v>1115868.968437807</v>
       </c>
       <c r="J27">
-        <v>657.312620323182</v>
+        <v>4842003.836651471</v>
       </c>
       <c r="K27">
-        <v>4319.888876642758</v>
+        <v>3987421.351326634</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1375,28 +1378,28 @@
         <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>47.74118360180344</v>
+        <v>1116416.973318096</v>
       </c>
       <c r="G28">
-        <v>166.7504830638289</v>
+        <v>4841437.89548847</v>
       </c>
       <c r="H28">
-        <v>2015.450466496958</v>
+        <v>3986092.527521614</v>
       </c>
       <c r="I28">
-        <v>-203.1067990742831</v>
+        <v>1115923.36999774</v>
       </c>
       <c r="J28">
-        <v>616.5076147160655</v>
+        <v>4841955.185094869</v>
       </c>
       <c r="K28">
-        <v>4213.785156449256</v>
+        <v>3987346.430787151</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1410,28 +1413,28 @@
         <v>12</v>
       </c>
       <c r="D29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>46.53388630441443</v>
+        <v>1116415.546113175</v>
       </c>
       <c r="G29">
-        <v>179.6328401211246</v>
+        <v>4841454.408306278</v>
       </c>
       <c r="H29">
-        <v>2033.368274553962</v>
+        <v>3986107.867843269</v>
       </c>
       <c r="I29">
-        <v>-177.3154715665922</v>
+        <v>1115979.111146037</v>
       </c>
       <c r="J29">
-        <v>575.7026091089488</v>
+        <v>4841906.533538267</v>
       </c>
       <c r="K29">
-        <v>4086.227645851198</v>
+        <v>3987256.361584191</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1445,28 +1448,28 @@
         <v>12</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>45.41371344976491</v>
+        <v>1116414.221902301</v>
       </c>
       <c r="G30">
-        <v>192.5151971784203</v>
+        <v>4841470.921124085</v>
       </c>
       <c r="H30">
-        <v>2050.414265037596</v>
+        <v>3986122.46175878</v>
       </c>
       <c r="I30">
-        <v>-150.8890563466105</v>
+        <v>1116036.22486883</v>
       </c>
       <c r="J30">
-        <v>534.897603501832</v>
+        <v>4841857.881981664</v>
       </c>
       <c r="K30">
-        <v>3937.216344848584</v>
+        <v>3987151.143717751</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1480,28 +1483,28 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>44.37067325055317</v>
+        <v>1116412.988873693</v>
       </c>
       <c r="G31">
-        <v>205.3975542357161</v>
+        <v>4841487.433941892</v>
       </c>
       <c r="H31">
-        <v>2066.669355172207</v>
+        <v>3986136.378545387</v>
       </c>
       <c r="I31">
-        <v>-123.8119149636932</v>
+        <v>1116094.744964503</v>
       </c>
       <c r="J31">
-        <v>494.0925978947155</v>
+        <v>4841809.230425062</v>
       </c>
       <c r="K31">
-        <v>3766.751253441418</v>
+        <v>3987030.777187833</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1515,28 +1518,28 @@
         <v>12</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>43.3963069517611</v>
+        <v>1116411.837027848</v>
       </c>
       <c r="G32">
-        <v>218.2799112930118</v>
+        <v>4841503.9467597</v>
       </c>
       <c r="H32">
-        <v>2082.203694605608</v>
+        <v>3986149.678261672</v>
       </c>
       <c r="I32">
-        <v>-96.06802388473483</v>
+        <v>1116154.706063694</v>
       </c>
       <c r="J32">
-        <v>453.2875922875987</v>
+        <v>4841760.57886846</v>
       </c>
       <c r="K32">
-        <v>3574.832371629695</v>
+        <v>3986895.261994436</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1550,28 +1553,28 @@
         <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>42.48339926624152</v>
+        <v>1116410.757835221</v>
       </c>
       <c r="G33">
-        <v>231.1622683503075</v>
+        <v>4841520.459577507</v>
       </c>
       <c r="H33">
-        <v>2097.078494983717</v>
+        <v>3986162.413313951</v>
       </c>
       <c r="I33">
-        <v>-67.64096501186872</v>
+        <v>1116216.14364979</v>
       </c>
       <c r="J33">
-        <v>412.4825866804822</v>
+        <v>4841711.927311858</v>
       </c>
       <c r="K33">
-        <v>3361.459699413419</v>
+        <v>3986744.59813756</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1585,28 +1588,28 @@
         <v>12</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>41.62575293447313</v>
+        <v>1116409.743969732</v>
       </c>
       <c r="G34">
-        <v>244.0446254076032</v>
+        <v>4841536.972395315</v>
       </c>
       <c r="H34">
-        <v>2111.347486717404</v>
+        <v>3986174.629703489</v>
       </c>
       <c r="I34">
-        <v>-38.51391596667286</v>
+        <v>1116279.094079922</v>
       </c>
       <c r="J34">
-        <v>371.6775810733654</v>
+        <v>4841663.275755255</v>
       </c>
       <c r="K34">
-        <v>3126.633236792586</v>
+        <v>3986578.785617206</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1620,28 +1623,28 @@
         <v>12</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>40.81801128316201</v>
+        <v>1116408.789098996</v>
       </c>
       <c r="G35">
-        <v>256.926982464899</v>
+        <v>4841553.485213121</v>
       </c>
       <c r="H35">
-        <v>2125.058090542424</v>
+        <v>3986186.36802952</v>
       </c>
       <c r="I35">
-        <v>-8.669640135132962</v>
+        <v>1116343.594606483</v>
       </c>
       <c r="J35">
-        <v>330.8725754662487</v>
+        <v>4841614.624198653</v>
       </c>
       <c r="K35">
-        <v>2870.352983767199</v>
+        <v>3986397.824433373</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1655,28 +1658,28 @@
         <v>12</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>40.05551716005886</v>
+        <v>1116407.887717565</v>
       </c>
       <c r="G36">
-        <v>269.8093395221947</v>
+        <v>4841569.998030929</v>
       </c>
       <c r="H36">
-        <v>2138.25236836084</v>
+        <v>3986197.664303322</v>
       </c>
       <c r="I36">
-        <v>21.90952353252838</v>
+        <v>1116409.683399171</v>
       </c>
       <c r="J36">
-        <v>290.0675698591321</v>
+        <v>4841565.972642051</v>
       </c>
       <c r="K36">
-        <v>2592.618940337258</v>
+        <v>3986201.714586061</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1690,28 +1693,28 @@
         <v>12</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>39.3341997518344</v>
+        <v>1116407.035013135</v>
       </c>
       <c r="G37">
-        <v>282.6916965794904</v>
+        <v>4841586.510848737</v>
       </c>
       <c r="H37">
-        <v>2150.967801456572</v>
+        <v>3986208.550614473</v>
       </c>
       <c r="I37">
-        <v>53.24167097319111</v>
+        <v>1116477.399567578</v>
       </c>
       <c r="J37">
-        <v>249.2625642520154</v>
+        <v>4841517.321085448</v>
       </c>
       <c r="K37">
-        <v>2293.431106502761</v>
+        <v>3985990.456075271</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1725,28 +1728,28 @@
         <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>38.6504829997732</v>
+        <v>1116406.226758271</v>
       </c>
       <c r="G38">
-        <v>295.5740536367862</v>
+        <v>4841603.023666544</v>
       </c>
       <c r="H38">
-        <v>2163.237932379481</v>
+        <v>3986219.055680411</v>
       </c>
       <c r="I38">
-        <v>85.34534371953335</v>
+        <v>1116546.783184334</v>
       </c>
       <c r="J38">
-        <v>208.4575586448988</v>
+        <v>4841468.669528847</v>
       </c>
       <c r="K38">
-        <v>1972.789482263711</v>
+        <v>3985764.048901001</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1760,28 +1763,28 @@
         <v>12</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>38.00121090747142</v>
+        <v>1116405.459222116</v>
       </c>
       <c r="G39">
-        <v>308.4564106940819</v>
+        <v>4841619.536484351</v>
       </c>
       <c r="H39">
-        <v>2175.092898190247</v>
+        <v>3986229.205302963</v>
       </c>
       <c r="I39">
-        <v>118.2395398724166</v>
+        <v>1116617.875308821</v>
       </c>
       <c r="J39">
-        <v>167.6525530377821</v>
+        <v>4841420.017972244</v>
       </c>
       <c r="K39">
-        <v>1630.694067620103</v>
+        <v>3985522.493063254</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1795,28 +1798,28 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>37.383586179053</v>
+        <v>1116404.729097851</v>
       </c>
       <c r="G40">
-        <v>321.3387677513776</v>
+        <v>4841636.049302159</v>
       </c>
       <c r="H40">
-        <v>2186.559876410241</v>
+        <v>3986239.02275015</v>
       </c>
       <c r="I40">
-        <v>151.9437253434592</v>
+        <v>1116690.718011471</v>
       </c>
       <c r="J40">
-        <v>126.8475474306653</v>
+        <v>4841371.366415642</v>
       </c>
       <c r="K40">
-        <v>1267.144862571942</v>
+        <v>3985265.788562028</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1830,28 +1833,28 @@
         <v>12</v>
       </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>36.79511946536922</v>
+        <v>1116404.033442695</v>
       </c>
       <c r="G41">
-        <v>334.2211248086733</v>
+        <v>4841652.562119966</v>
       </c>
       <c r="H41">
-        <v>2197.663460282857</v>
+        <v>3986248.529077463</v>
       </c>
       <c r="I41">
-        <v>186.4778453744438</v>
+        <v>1116765.354398659</v>
       </c>
       <c r="J41">
-        <v>86.04254182354877</v>
+        <v>4841322.71485904</v>
       </c>
       <c r="K41">
-        <v>882.1418671192266</v>
+        <v>3984993.935397322</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1865,28 +1868,28 @@
         <v>12</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>36.23358711750875</v>
+        <v>1116403.369627965</v>
       </c>
       <c r="G42">
-        <v>347.1034818659691</v>
+        <v>4841669.074937774</v>
       </c>
       <c r="H42">
-        <v>2208.425976380182</v>
+        <v>3986257.743399785</v>
       </c>
       <c r="I42">
-        <v>221.8623363403842</v>
+        <v>1116841.828638217</v>
       </c>
       <c r="J42">
-        <v>45.23753621643203</v>
+        <v>4841274.063302438</v>
       </c>
       <c r="K42">
-        <v>475.6850812619552</v>
+        <v>3984706.933569138</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1900,28 +1903,28 @@
         <v>12</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>35.69699581261969</v>
+        <v>1116402.735297255</v>
       </c>
       <c r="G43">
-        <v>359.9858389232649</v>
+        <v>4841685.587755581</v>
       </c>
       <c r="H43">
-        <v>2218.867754868449</v>
+        <v>3986266.683122777</v>
       </c>
       <c r="I43">
-        <v>258.1181378432258</v>
+        <v>1116920.185985569</v>
       </c>
       <c r="J43">
-        <v>4.432530609315277</v>
+        <v>4841225.411745835</v>
       </c>
       <c r="K43">
-        <v>47.77450500012914</v>
+        <v>3984404.783077476</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1935,28 +1938,28 @@
         <v>12</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>35.18355276911729</v>
+        <v>1116402.128331233</v>
       </c>
       <c r="G44">
-        <v>372.8681959805605</v>
+        <v>4841702.100573388</v>
       </c>
       <c r="H44">
-        <v>2229.007360655524</v>
+        <v>3986275.364140775</v>
       </c>
       <c r="I44">
-        <v>295.2667051033488</v>
+        <v>1117000.472810513</v>
       </c>
       <c r="J44">
-        <v>-36.37247499780128</v>
+        <v>4841176.760189233</v>
       </c>
       <c r="K44">
-        <v>-401.5898616662505</v>
+        <v>3984087.483922335</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1970,28 +1973,28 @@
         <v>12</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>34.69164053691746</v>
+        <v>1116401.546817831</v>
       </c>
       <c r="G45">
-        <v>385.7505530378562</v>
+        <v>4841718.613391196</v>
       </c>
       <c r="H45">
-        <v>2238.861792023992</v>
+        <v>3986283.801006848</v>
       </c>
       <c r="I45">
-        <v>333.3300216561973</v>
+        <v>1117082.736624658</v>
       </c>
       <c r="J45">
-        <v>-77.17748060491803</v>
+        <v>4841128.108632631</v>
       </c>
       <c r="K45">
-        <v>-872.4080187371862</v>
+        <v>3983755.036103715</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2005,28 +2008,28 @@
         <v>12</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>34.21979555492614</v>
+        <v>1116400.989026903</v>
       </c>
       <c r="G46">
-        <v>398.632910095152</v>
+        <v>4841735.126209003</v>
       </c>
       <c r="H46">
-        <v>2248.446652088363</v>
+        <v>3986292.007079597</v>
       </c>
       <c r="I46">
-        <v>372.3306123615509</v>
+        <v>1117167.026109545</v>
       </c>
       <c r="J46">
-        <v>-117.9824862120348</v>
+        <v>4841079.457076028</v>
       </c>
       <c r="K46">
-        <v>-1364.679966212678</v>
+        <v>3983407.439621616</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2040,28 +2043,28 @@
         <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>33.76668982819479</v>
+        <v>1116400.453388561</v>
       </c>
       <c r="G47">
-        <v>411.5152671524477</v>
+        <v>4841751.63902681</v>
       </c>
       <c r="H47">
-        <v>2257.776297419492</v>
+        <v>3986299.99465039</v>
       </c>
       <c r="I47">
-        <v>412.2915567331382</v>
+        <v>1117253.391145453</v>
       </c>
       <c r="J47">
-        <v>-158.7874918191515</v>
+        <v>4841030.805519426</v>
       </c>
       <c r="K47">
-        <v>-1878.405704092724</v>
+        <v>3983044.694476039</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2075,28 +2078,28 @@
         <v>12</v>
       </c>
       <c r="D48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>33.33111520226275</v>
+        <v>1116399.938474587</v>
       </c>
       <c r="G48">
-        <v>424.3976242097434</v>
+        <v>4841768.151844618</v>
       </c>
       <c r="H48">
-        <v>2266.86396739049</v>
+        <v>3986307.775054108</v>
       </c>
       <c r="I48">
-        <v>453.2365025964808</v>
+        <v>1117341.882840915</v>
       </c>
       <c r="J48">
-        <v>-199.5924974262679</v>
+        <v>4840982.153962824</v>
       </c>
       <c r="K48">
-        <v>-2413.585232377321</v>
+        <v>3982666.800666983</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2110,28 +2113,28 @@
         <v>12</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>32.91196981062114</v>
+        <v>1116399.44298241</v>
       </c>
       <c r="G49">
-        <v>437.2799812670392</v>
+        <v>4841784.664662424</v>
       </c>
       <c r="H49">
-        <v>2275.721897169215</v>
+        <v>3986315.358765886</v>
       </c>
       <c r="I49">
-        <v>495.1896800830493</v>
+        <v>1117432.553562968</v>
       </c>
       <c r="J49">
-        <v>-240.3975030333846</v>
+        <v>4840933.502406222</v>
       </c>
       <c r="K49">
-        <v>-2970.218551066476</v>
+        <v>3982273.758194449</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2145,28 +2148,28 @@
         <v>12</v>
       </c>
       <c r="D50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>32.50824634915359</v>
+        <v>1116398.965721248</v>
       </c>
       <c r="G50">
-        <v>450.1623383243349</v>
+        <v>4841801.177480233</v>
       </c>
       <c r="H50">
-        <v>2284.361416777374</v>
+        <v>3986322.755485915</v>
       </c>
       <c r="I50">
-        <v>538.1759159690087</v>
+        <v>1117525.456968135</v>
       </c>
       <c r="J50">
-        <v>-281.2025086405014</v>
+        <v>4840884.850849619</v>
       </c>
       <c r="K50">
-        <v>-3548.305660160187</v>
+        <v>3981865.567058435</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2180,28 +2183,28 @@
         <v>12</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>32.11902189349516</v>
+        <v>1116398.505600067</v>
       </c>
       <c r="G51">
-        <v>463.0446953816306</v>
+        <v>4841817.69029804</v>
       </c>
       <c r="H51">
-        <v>2292.793038228515</v>
+        <v>3986329.97421405</v>
       </c>
       <c r="I51">
-        <v>582.2206483670478</v>
+        <v>1117620.648034185</v>
       </c>
       <c r="J51">
-        <v>-322.0075142476181</v>
+        <v>4840836.199293017</v>
       </c>
       <c r="K51">
-        <v>-4147.846559658452</v>
+        <v>3981442.227258943</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2215,28 +2218,28 @@
         <v>12</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>31.74344902501401</v>
+        <v>1116398.061617092</v>
       </c>
       <c r="G52">
-        <v>475.9270524389264</v>
+        <v>4841834.203115847</v>
       </c>
       <c r="H52">
-        <v>2301.026532426059</v>
+        <v>3986337.023315643</v>
       </c>
       <c r="I52">
-        <v>627.3499417799784</v>
+        <v>1117718.183092662</v>
       </c>
       <c r="J52">
-        <v>-362.8125198547349</v>
+        <v>4840787.547736415</v>
       </c>
       <c r="K52">
-        <v>-4768.841249561272</v>
+        <v>3981003.738795972</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2250,28 +2253,28 @@
         <v>12</v>
       </c>
       <c r="D53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>31.38074807122636</v>
+        <v>1116397.632850634</v>
       </c>
       <c r="G53">
-        <v>488.8094094962221</v>
+        <v>4841850.715933654</v>
       </c>
       <c r="H53">
-        <v>2309.070997232303</v>
+        <v>3986343.910579826</v>
       </c>
       <c r="I53">
-        <v>673.5905025250128</v>
+        <v>1117818.119862224</v>
       </c>
       <c r="J53">
-        <v>-403.6175254618512</v>
+        <v>4840738.896179813</v>
       </c>
       <c r="K53">
-        <v>-5411.289729868642</v>
+        <v>3980550.101669523</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2285,28 +2288,1883 @@
         <v>12</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>31.03020029896015</v>
+        <v>1116397.218451043</v>
       </c>
       <c r="G54">
-        <v>501.6917665535178</v>
+        <v>4841867.228751463</v>
       </c>
       <c r="H54">
-        <v>2316.934917897567</v>
+        <v>3986350.64327124</v>
       </c>
       <c r="I54">
-        <v>720.9696945378585</v>
+        <v>1117920.517482796</v>
       </c>
       <c r="J54">
-        <v>-444.422531068968</v>
+        <v>4840690.24462321</v>
       </c>
       <c r="K54">
-        <v>-6075.192000580572</v>
+        <v>3980081.315879595</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55">
+        <v>24</v>
+      </c>
+      <c r="B55" t="s">
+        <v>11</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55">
+        <v>152.142</v>
+      </c>
+      <c r="F55">
+        <v>1116579.353025269</v>
+      </c>
+      <c r="G55">
+        <v>4841118.121267411</v>
+      </c>
+      <c r="H55">
+        <v>3985226.491843443</v>
+      </c>
+      <c r="I55">
+        <v>1114860.977690551</v>
+      </c>
+      <c r="J55">
+        <v>4843221.638916453</v>
+      </c>
+      <c r="K55">
+        <v>3984364.947873689</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56">
+        <v>24</v>
+      </c>
+      <c r="B56" t="s">
+        <v>11</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56">
+        <v>153.142</v>
+      </c>
+      <c r="F56">
+        <v>1116579.353025269</v>
+      </c>
+      <c r="G56">
+        <v>4841118.121267411</v>
+      </c>
+      <c r="H56">
+        <v>3985226.491843443</v>
+      </c>
+      <c r="I56">
+        <v>1114890.591676928</v>
+      </c>
+      <c r="J56">
+        <v>4843172.98734465</v>
+      </c>
+      <c r="K56">
+        <v>3984668.743455968</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57">
+        <v>24</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57">
+        <v>154.142</v>
+      </c>
+      <c r="F57">
+        <v>1116579.353025269</v>
+      </c>
+      <c r="G57">
+        <v>4841118.121267411</v>
+      </c>
+      <c r="H57">
+        <v>3985226.491843443</v>
+      </c>
+      <c r="I57">
+        <v>1114920.934880475</v>
+      </c>
+      <c r="J57">
+        <v>4843124.335772845</v>
+      </c>
+      <c r="K57">
+        <v>3984957.390397965</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58">
+        <v>24</v>
+      </c>
+      <c r="B58" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58">
+        <v>155.142</v>
+      </c>
+      <c r="F58">
+        <v>1116579.353025269</v>
+      </c>
+      <c r="G58">
+        <v>4841118.121267411</v>
+      </c>
+      <c r="H58">
+        <v>3985226.491843443</v>
+      </c>
+      <c r="I58">
+        <v>1114952.025257495</v>
+      </c>
+      <c r="J58">
+        <v>4843075.68420104</v>
+      </c>
+      <c r="K58">
+        <v>3985230.888699681</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59">
+        <v>24</v>
+      </c>
+      <c r="B59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59">
+        <v>156.142</v>
+      </c>
+      <c r="F59">
+        <v>1116579.353025269</v>
+      </c>
+      <c r="G59">
+        <v>4841118.121267411</v>
+      </c>
+      <c r="H59">
+        <v>3985226.491843443</v>
+      </c>
+      <c r="I59">
+        <v>1114983.881206445</v>
+      </c>
+      <c r="J59">
+        <v>4843027.032629237</v>
+      </c>
+      <c r="K59">
+        <v>3985489.238361116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60">
+        <v>24</v>
+      </c>
+      <c r="B60" t="s">
+        <v>11</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60">
+        <v>157.142</v>
+      </c>
+      <c r="F60">
+        <v>1116579.353025269</v>
+      </c>
+      <c r="G60">
+        <v>4841118.121267411</v>
+      </c>
+      <c r="H60">
+        <v>3985226.491843443</v>
+      </c>
+      <c r="I60">
+        <v>1115016.521578832</v>
+      </c>
+      <c r="J60">
+        <v>4842978.381057433</v>
+      </c>
+      <c r="K60">
+        <v>3985732.43938227</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61">
+        <v>24</v>
+      </c>
+      <c r="B61" t="s">
+        <v>11</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61">
+        <v>158.142</v>
+      </c>
+      <c r="F61">
+        <v>1116579.353025269</v>
+      </c>
+      <c r="G61">
+        <v>4841118.121267411</v>
+      </c>
+      <c r="H61">
+        <v>3985226.491843443</v>
+      </c>
+      <c r="I61">
+        <v>1115049.96569036</v>
+      </c>
+      <c r="J61">
+        <v>4842929.729485627</v>
+      </c>
+      <c r="K61">
+        <v>3985960.491763141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62">
+        <v>24</v>
+      </c>
+      <c r="B62" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62">
+        <v>159.142</v>
+      </c>
+      <c r="F62">
+        <v>1116579.353025269</v>
+      </c>
+      <c r="G62">
+        <v>4841118.121267411</v>
+      </c>
+      <c r="H62">
+        <v>3985226.491843443</v>
+      </c>
+      <c r="I62">
+        <v>1115084.233332366</v>
+      </c>
+      <c r="J62">
+        <v>4842881.077913824</v>
+      </c>
+      <c r="K62">
+        <v>3986173.395503732</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63">
+        <v>24</v>
+      </c>
+      <c r="B63" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+      <c r="E63">
+        <v>160.142</v>
+      </c>
+      <c r="F63">
+        <v>1116579.353025269</v>
+      </c>
+      <c r="G63">
+        <v>4841134.634064648</v>
+      </c>
+      <c r="H63">
+        <v>3985226.491843443</v>
+      </c>
+      <c r="I63">
+        <v>1115119.344783532</v>
+      </c>
+      <c r="J63">
+        <v>4842832.42634202</v>
+      </c>
+      <c r="K63">
+        <v>3986371.150604041</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64">
+        <v>24</v>
+      </c>
+      <c r="B64" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64">
+        <v>161.142</v>
+      </c>
+      <c r="F64">
+        <v>1116530.672424477</v>
+      </c>
+      <c r="G64">
+        <v>4841151.146861885</v>
+      </c>
+      <c r="H64">
+        <v>3985425.746158395</v>
+      </c>
+      <c r="I64">
+        <v>1115155.32082188</v>
+      </c>
+      <c r="J64">
+        <v>4842783.774770215</v>
+      </c>
+      <c r="K64">
+        <v>3986553.757064069</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65">
+        <v>24</v>
+      </c>
+      <c r="B65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65">
+        <v>162.142</v>
+      </c>
+      <c r="F65">
+        <v>1116502.075013594</v>
+      </c>
+      <c r="G65">
+        <v>4841167.659659122</v>
+      </c>
+      <c r="H65">
+        <v>3985544.432218633</v>
+      </c>
+      <c r="I65">
+        <v>1115192.182737075</v>
+      </c>
+      <c r="J65">
+        <v>4842735.12319841</v>
+      </c>
+      <c r="K65">
+        <v>3986721.214883815</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66">
+        <v>24</v>
+      </c>
+      <c r="B66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66">
+        <v>163.142</v>
+      </c>
+      <c r="F66">
+        <v>1116484.022229832</v>
+      </c>
+      <c r="G66">
+        <v>4841184.172456359</v>
+      </c>
+      <c r="H66">
+        <v>3985629.249124201</v>
+      </c>
+      <c r="I66">
+        <v>1115229.95234302</v>
+      </c>
+      <c r="J66">
+        <v>4842686.471626607</v>
+      </c>
+      <c r="K66">
+        <v>3986873.52406328</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="A67">
+        <v>24</v>
+      </c>
+      <c r="B67" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67">
+        <v>164.142</v>
+      </c>
+      <c r="F67">
+        <v>1116471.432291718</v>
+      </c>
+      <c r="G67">
+        <v>4841200.685253596</v>
+      </c>
+      <c r="H67">
+        <v>3985695.296003126</v>
+      </c>
+      <c r="I67">
+        <v>1115268.651990763</v>
+      </c>
+      <c r="J67">
+        <v>4842637.820054802</v>
+      </c>
+      <c r="K67">
+        <v>3987010.684602464</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="A68">
+        <v>24</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s">
+        <v>14</v>
+      </c>
+      <c r="E68">
+        <v>165.142</v>
+      </c>
+      <c r="F68">
+        <v>1116462.039820859</v>
+      </c>
+      <c r="G68">
+        <v>4841217.198050833</v>
+      </c>
+      <c r="H68">
+        <v>3985749.393520029</v>
+      </c>
+      <c r="I68">
+        <v>1115308.304581729</v>
+      </c>
+      <c r="J68">
+        <v>4842589.168482998</v>
+      </c>
+      <c r="K68">
+        <v>3987132.696501366</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="A69">
+        <v>24</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69">
+        <v>166.142</v>
+      </c>
+      <c r="F69">
+        <v>1116454.696220266</v>
+      </c>
+      <c r="G69">
+        <v>4841233.71084807</v>
+      </c>
+      <c r="H69">
+        <v>3985795.210167918</v>
+      </c>
+      <c r="I69">
+        <v>1115348.933581268</v>
+      </c>
+      <c r="J69">
+        <v>4842540.516911194</v>
+      </c>
+      <c r="K69">
+        <v>3987239.559759987</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
+      <c r="A70">
+        <v>24</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70">
+        <v>167.142</v>
+      </c>
+      <c r="F70">
+        <v>1116448.754712682</v>
+      </c>
+      <c r="G70">
+        <v>4841250.223645307</v>
+      </c>
+      <c r="H70">
+        <v>3985834.947765507</v>
+      </c>
+      <c r="I70">
+        <v>1115390.563032543</v>
+      </c>
+      <c r="J70">
+        <v>4842491.865339389</v>
+      </c>
+      <c r="K70">
+        <v>3987331.274378326</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="A71">
+        <v>24</v>
+      </c>
+      <c r="B71" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s">
+        <v>14</v>
+      </c>
+      <c r="E71">
+        <v>168.142</v>
+      </c>
+      <c r="F71">
+        <v>1116443.821144309</v>
+      </c>
+      <c r="G71">
+        <v>4841266.736442544</v>
+      </c>
+      <c r="H71">
+        <v>3985870.032131995</v>
+      </c>
+      <c r="I71">
+        <v>1115433.217570757</v>
+      </c>
+      <c r="J71">
+        <v>4842443.213767585</v>
+      </c>
+      <c r="K71">
+        <v>3987407.840356384</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="A72">
+        <v>24</v>
+      </c>
+      <c r="B72" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" t="s">
+        <v>14</v>
+      </c>
+      <c r="E72">
+        <v>169.142</v>
+      </c>
+      <c r="F72">
+        <v>1116439.640316318</v>
+      </c>
+      <c r="G72">
+        <v>4841283.249239781</v>
+      </c>
+      <c r="H72">
+        <v>3985901.43969999</v>
+      </c>
+      <c r="I72">
+        <v>1115476.922437733</v>
+      </c>
+      <c r="J72">
+        <v>4842394.562195782</v>
+      </c>
+      <c r="K72">
+        <v>3987469.257694161</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
+      <c r="A73">
+        <v>24</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73">
+        <v>170.142</v>
+      </c>
+      <c r="F73">
+        <v>1116436.038940887</v>
+      </c>
+      <c r="G73">
+        <v>4841299.762037018</v>
+      </c>
+      <c r="H73">
+        <v>3985929.868537254</v>
+      </c>
+      <c r="I73">
+        <v>1115521.703496851</v>
+      </c>
+      <c r="J73">
+        <v>4842345.910623976</v>
+      </c>
+      <c r="K73">
+        <v>3987515.526391657</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="A74">
+        <v>24</v>
+      </c>
+      <c r="B74" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74">
+        <v>171.142</v>
+      </c>
+      <c r="F74">
+        <v>1116432.894754047</v>
+      </c>
+      <c r="G74">
+        <v>4841316.274834256</v>
+      </c>
+      <c r="H74">
+        <v>3985955.83503403</v>
+      </c>
+      <c r="I74">
+        <v>1115567.587248351</v>
+      </c>
+      <c r="J74">
+        <v>4842297.259052172</v>
+      </c>
+      <c r="K74">
+        <v>3987546.646448871</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="A75">
+        <v>24</v>
+      </c>
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75">
+        <v>172.142</v>
+      </c>
+      <c r="F75">
+        <v>1116430.118734238</v>
+      </c>
+      <c r="G75">
+        <v>4841332.787631492</v>
+      </c>
+      <c r="H75">
+        <v>3985979.731944902</v>
+      </c>
+      <c r="I75">
+        <v>1115614.60084502</v>
+      </c>
+      <c r="J75">
+        <v>4842248.607480369</v>
+      </c>
+      <c r="K75">
+        <v>3987562.617865804</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
+      <c r="A76">
+        <v>24</v>
+      </c>
+      <c r="B76" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76">
+        <v>173.142</v>
+      </c>
+      <c r="F76">
+        <v>1116427.644337522</v>
+      </c>
+      <c r="G76">
+        <v>4841349.30042873</v>
+      </c>
+      <c r="H76">
+        <v>3986001.864956531</v>
+      </c>
+      <c r="I76">
+        <v>1115662.772108255</v>
+      </c>
+      <c r="J76">
+        <v>4842199.955908564</v>
+      </c>
+      <c r="K76">
+        <v>3987563.440642455</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="A77">
+        <v>24</v>
+      </c>
+      <c r="B77" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" t="s">
+        <v>14</v>
+      </c>
+      <c r="E77">
+        <v>174.142</v>
+      </c>
+      <c r="F77">
+        <v>1116425.420701293</v>
+      </c>
+      <c r="G77">
+        <v>4841365.813225967</v>
+      </c>
+      <c r="H77">
+        <v>3986022.476661744</v>
+      </c>
+      <c r="I77">
+        <v>1115712.129544531</v>
+      </c>
+      <c r="J77">
+        <v>4842151.304336759</v>
+      </c>
+      <c r="K77">
+        <v>3987549.114778825</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="A78">
+        <v>24</v>
+      </c>
+      <c r="B78" t="s">
+        <v>11</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" t="s">
+        <v>14</v>
+      </c>
+      <c r="E78">
+        <v>175.142</v>
+      </c>
+      <c r="F78">
+        <v>1116423.408198357</v>
+      </c>
+      <c r="G78">
+        <v>4841382.326023203</v>
+      </c>
+      <c r="H78">
+        <v>3986041.762810864</v>
+      </c>
+      <c r="I78">
+        <v>1115762.702362266</v>
+      </c>
+      <c r="J78">
+        <v>4842102.652764956</v>
+      </c>
+      <c r="K78">
+        <v>3987519.640274913</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="A79">
+        <v>24</v>
+      </c>
+      <c r="B79" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" t="s">
+        <v>14</v>
+      </c>
+      <c r="E79">
+        <v>176.142</v>
+      </c>
+      <c r="F79">
+        <v>1116421.575438655</v>
+      </c>
+      <c r="G79">
+        <v>4841398.838820441</v>
+      </c>
+      <c r="H79">
+        <v>3986059.88364569</v>
+      </c>
+      <c r="I79">
+        <v>1115814.520489113</v>
+      </c>
+      <c r="J79">
+        <v>4842054.001193151</v>
+      </c>
+      <c r="K79">
+        <v>3987475.01713072</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
+      <c r="A80">
+        <v>24</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80">
+        <v>177.142</v>
+      </c>
+      <c r="F80">
+        <v>1116419.897193255</v>
+      </c>
+      <c r="G80">
+        <v>4841415.351617677</v>
+      </c>
+      <c r="H80">
+        <v>3986076.972000193</v>
+      </c>
+      <c r="I80">
+        <v>1115867.614589661</v>
+      </c>
+      <c r="J80">
+        <v>4842005.349621346</v>
+      </c>
+      <c r="K80">
+        <v>3987415.245346246</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
+      <c r="A81">
+        <v>24</v>
+      </c>
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81">
+        <v>178.142</v>
+      </c>
+      <c r="F81">
+        <v>1116418.352923369</v>
+      </c>
+      <c r="G81">
+        <v>4841431.864414915</v>
+      </c>
+      <c r="H81">
+        <v>3986093.139215264</v>
+      </c>
+      <c r="I81">
+        <v>1115922.01608359</v>
+      </c>
+      <c r="J81">
+        <v>4841956.698049542</v>
+      </c>
+      <c r="K81">
+        <v>3987340.32492149</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
+      <c r="A82">
+        <v>24</v>
+      </c>
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82">
+        <v>179.142</v>
+      </c>
+      <c r="F82">
+        <v>1116416.925716684</v>
+      </c>
+      <c r="G82">
+        <v>4841448.377212152</v>
+      </c>
+      <c r="H82">
+        <v>3986108.479539273</v>
+      </c>
+      <c r="I82">
+        <v>1115977.757164258</v>
+      </c>
+      <c r="J82">
+        <v>4841908.046477738</v>
+      </c>
+      <c r="K82">
+        <v>3987250.255856454</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
+      <c r="A83">
+        <v>24</v>
+      </c>
+      <c r="B83" t="s">
+        <v>11</v>
+      </c>
+      <c r="C83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" t="s">
+        <v>14</v>
+      </c>
+      <c r="E83">
+        <v>180.142</v>
+      </c>
+      <c r="F83">
+        <v>1116415.601504173</v>
+      </c>
+      <c r="G83">
+        <v>4841464.890009388</v>
+      </c>
+      <c r="H83">
+        <v>3986123.073457024</v>
+      </c>
+      <c r="I83">
+        <v>1116034.870817757</v>
+      </c>
+      <c r="J83">
+        <v>4841859.394905934</v>
+      </c>
+      <c r="K83">
+        <v>3987145.038151135</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
+      <c r="A84">
+        <v>24</v>
+      </c>
+      <c r="B84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84">
+        <v>181.142</v>
+      </c>
+      <c r="F84">
+        <v>1116414.368474043</v>
+      </c>
+      <c r="G84">
+        <v>4841481.402806626</v>
+      </c>
+      <c r="H84">
+        <v>3986136.990245766</v>
+      </c>
+      <c r="I84">
+        <v>1116093.390842429</v>
+      </c>
+      <c r="J84">
+        <v>4841810.743334129</v>
+      </c>
+      <c r="K84">
+        <v>3987024.671805535</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
+      <c r="A85">
+        <v>24</v>
+      </c>
+      <c r="B85" t="s">
+        <v>11</v>
+      </c>
+      <c r="C85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" t="s">
+        <v>14</v>
+      </c>
+      <c r="E85">
+        <v>182.142</v>
+      </c>
+      <c r="F85">
+        <v>1116413.216626773</v>
+      </c>
+      <c r="G85">
+        <v>4841497.915603863</v>
+      </c>
+      <c r="H85">
+        <v>3986150.289964091</v>
+      </c>
+      <c r="I85">
+        <v>1116153.351868872</v>
+      </c>
+      <c r="J85">
+        <v>4841762.091762325</v>
+      </c>
+      <c r="K85">
+        <v>3986889.156819654</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
+      <c r="A86">
+        <v>24</v>
+      </c>
+      <c r="B86" t="s">
+        <v>11</v>
+      </c>
+      <c r="C86" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86">
+        <v>183.142</v>
+      </c>
+      <c r="F86">
+        <v>1116412.137432813</v>
+      </c>
+      <c r="G86">
+        <v>4841514.4284011</v>
+      </c>
+      <c r="H86">
+        <v>3986163.025018326</v>
+      </c>
+      <c r="I86">
+        <v>1116214.789380427</v>
+      </c>
+      <c r="J86">
+        <v>4841713.440190521</v>
+      </c>
+      <c r="K86">
+        <v>3986738.493193492</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
+      <c r="A87">
+        <v>24</v>
+      </c>
+      <c r="B87" t="s">
+        <v>11</v>
+      </c>
+      <c r="C87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87">
+        <v>184.142</v>
+      </c>
+      <c r="F87">
+        <v>1116411.123566071</v>
+      </c>
+      <c r="G87">
+        <v>4841530.941198337</v>
+      </c>
+      <c r="H87">
+        <v>3986175.241409738</v>
+      </c>
+      <c r="I87">
+        <v>1116277.739734184</v>
+      </c>
+      <c r="J87">
+        <v>4841664.788618717</v>
+      </c>
+      <c r="K87">
+        <v>3986572.680927048</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
+      <c r="A88">
+        <v>24</v>
+      </c>
+      <c r="B88" t="s">
+        <v>11</v>
+      </c>
+      <c r="C88" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88">
+        <v>185.142</v>
+      </c>
+      <c r="F88">
+        <v>1116410.168694155</v>
+      </c>
+      <c r="G88">
+        <v>4841547.453995573</v>
+      </c>
+      <c r="H88">
+        <v>3986186.979737571</v>
+      </c>
+      <c r="I88">
+        <v>1116342.240182488</v>
+      </c>
+      <c r="J88">
+        <v>4841616.137046912</v>
+      </c>
+      <c r="K88">
+        <v>3986391.720020323</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
+      <c r="A89">
+        <v>24</v>
+      </c>
+      <c r="B89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89">
+        <v>186.142</v>
+      </c>
+      <c r="F89">
+        <v>1116409.267311611</v>
+      </c>
+      <c r="G89">
+        <v>4841563.966792811</v>
+      </c>
+      <c r="H89">
+        <v>3986198.276013106</v>
+      </c>
+      <c r="I89">
+        <v>1116408.328894992</v>
+      </c>
+      <c r="J89">
+        <v>4841567.485475108</v>
+      </c>
+      <c r="K89">
+        <v>3986195.610473316</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
+      <c r="A90">
+        <v>24</v>
+      </c>
+      <c r="B90" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" t="s">
+        <v>14</v>
+      </c>
+      <c r="E90">
+        <v>187.142</v>
+      </c>
+      <c r="F90">
+        <v>1116408.414606126</v>
+      </c>
+      <c r="G90">
+        <v>4841580.479590048</v>
+      </c>
+      <c r="H90">
+        <v>3986209.162325928</v>
+      </c>
+      <c r="I90">
+        <v>1116476.044981241</v>
+      </c>
+      <c r="J90">
+        <v>4841518.833903304</v>
+      </c>
+      <c r="K90">
+        <v>3985984.352286028</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
+      <c r="A91">
+        <v>24</v>
+      </c>
+      <c r="B91" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91">
+        <v>188.142</v>
+      </c>
+      <c r="F91">
+        <v>1116407.606350263</v>
+      </c>
+      <c r="G91">
+        <v>4841596.992387285</v>
+      </c>
+      <c r="H91">
+        <v>3986219.667393478</v>
+      </c>
+      <c r="I91">
+        <v>1116545.428513817</v>
+      </c>
+      <c r="J91">
+        <v>4841470.1823315</v>
+      </c>
+      <c r="K91">
+        <v>3985757.945458459</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
+      <c r="A92">
+        <v>24</v>
+      </c>
+      <c r="B92" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" t="s">
+        <v>14</v>
+      </c>
+      <c r="E92">
+        <v>189.142</v>
+      </c>
+      <c r="F92">
+        <v>1116406.83881316</v>
+      </c>
+      <c r="G92">
+        <v>4841613.505184522</v>
+      </c>
+      <c r="H92">
+        <v>3986229.817017587</v>
+      </c>
+      <c r="I92">
+        <v>1116616.52055205</v>
+      </c>
+      <c r="J92">
+        <v>4841421.530759695</v>
+      </c>
+      <c r="K92">
+        <v>3985516.389990608</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
+      <c r="A93">
+        <v>24</v>
+      </c>
+      <c r="B93" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" t="s">
+        <v>14</v>
+      </c>
+      <c r="E93">
+        <v>190.142</v>
+      </c>
+      <c r="F93">
+        <v>1116406.108687993</v>
+      </c>
+      <c r="G93">
+        <v>4841630.017981759</v>
+      </c>
+      <c r="H93">
+        <v>3986239.634466281</v>
+      </c>
+      <c r="I93">
+        <v>1116689.363166322</v>
+      </c>
+      <c r="J93">
+        <v>4841372.879187891</v>
+      </c>
+      <c r="K93">
+        <v>3985259.685882476</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
+      <c r="A94">
+        <v>24</v>
+      </c>
+      <c r="B94" t="s">
+        <v>11</v>
+      </c>
+      <c r="C94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94">
+        <v>191.142</v>
+      </c>
+      <c r="F94">
+        <v>1116405.413031978</v>
+      </c>
+      <c r="G94">
+        <v>4841646.530778996</v>
+      </c>
+      <c r="H94">
+        <v>3986249.140795052</v>
+      </c>
+      <c r="I94">
+        <v>1116763.999462956</v>
+      </c>
+      <c r="J94">
+        <v>4841324.227616087</v>
+      </c>
+      <c r="K94">
+        <v>3984987.833134062</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
+      <c r="A95">
+        <v>24</v>
+      </c>
+      <c r="B95" t="s">
+        <v>11</v>
+      </c>
+      <c r="C95" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" t="s">
+        <v>14</v>
+      </c>
+      <c r="E95">
+        <v>192.142</v>
+      </c>
+      <c r="F95">
+        <v>1116404.749216427</v>
+      </c>
+      <c r="G95">
+        <v>4841663.043576233</v>
+      </c>
+      <c r="H95">
+        <v>3986258.355118788</v>
+      </c>
+      <c r="I95">
+        <v>1116840.47360973</v>
+      </c>
+      <c r="J95">
+        <v>4841275.576044283</v>
+      </c>
+      <c r="K95">
+        <v>3984700.831745367</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
+      <c r="A96">
+        <v>24</v>
+      </c>
+      <c r="B96" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96">
+        <v>193.142</v>
+      </c>
+      <c r="F96">
+        <v>1116404.114884934</v>
+      </c>
+      <c r="G96">
+        <v>4841679.55637347</v>
+      </c>
+      <c r="H96">
+        <v>3986267.294843153</v>
+      </c>
+      <c r="I96">
+        <v>1116918.830862014</v>
+      </c>
+      <c r="J96">
+        <v>4841226.924472478</v>
+      </c>
+      <c r="K96">
+        <v>3984398.681716391</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
+      <c r="A97">
+        <v>24</v>
+      </c>
+      <c r="B97" t="s">
+        <v>11</v>
+      </c>
+      <c r="C97" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97">
+        <v>194.142</v>
+      </c>
+      <c r="F97">
+        <v>1116403.507918161</v>
+      </c>
+      <c r="G97">
+        <v>4841696.069170707</v>
+      </c>
+      <c r="H97">
+        <v>3986275.975862482</v>
+      </c>
+      <c r="I97">
+        <v>1116999.117589548</v>
+      </c>
+      <c r="J97">
+        <v>4841178.272900674</v>
+      </c>
+      <c r="K97">
+        <v>3984081.383047133</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
+      <c r="A98">
+        <v>24</v>
+      </c>
+      <c r="B98" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98">
+        <v>195.142</v>
+      </c>
+      <c r="F98">
+        <v>1116402.926404041</v>
+      </c>
+      <c r="G98">
+        <v>4841712.581967944</v>
+      </c>
+      <c r="H98">
+        <v>3986284.412729851</v>
+      </c>
+      <c r="I98">
+        <v>1117081.381303885</v>
+      </c>
+      <c r="J98">
+        <v>4841129.62132887</v>
+      </c>
+      <c r="K98">
+        <v>3983748.935737594</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
+      <c r="A99">
+        <v>24</v>
+      </c>
+      <c r="B99" t="s">
+        <v>11</v>
+      </c>
+      <c r="C99" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" t="s">
+        <v>14</v>
+      </c>
+      <c r="E99">
+        <v>196.142</v>
+      </c>
+      <c r="F99">
+        <v>1116402.368612423</v>
+      </c>
+      <c r="G99">
+        <v>4841729.094765181</v>
+      </c>
+      <c r="H99">
+        <v>3986292.618803858</v>
+      </c>
+      <c r="I99">
+        <v>1117165.670686507</v>
+      </c>
+      <c r="J99">
+        <v>4841080.969757065</v>
+      </c>
+      <c r="K99">
+        <v>3983401.339787774</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
+      <c r="A100">
+        <v>24</v>
+      </c>
+      <c r="B100" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" t="s">
+        <v>14</v>
+      </c>
+      <c r="E100">
+        <v>197.142</v>
+      </c>
+      <c r="F100">
+        <v>1116401.832973419</v>
+      </c>
+      <c r="G100">
+        <v>4841745.607562418</v>
+      </c>
+      <c r="H100">
+        <v>3986300.606375876</v>
+      </c>
+      <c r="I100">
+        <v>1117252.03561763</v>
+      </c>
+      <c r="J100">
+        <v>4841032.318185261</v>
+      </c>
+      <c r="K100">
+        <v>3983038.595197672</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
+      <c r="A101">
+        <v>24</v>
+      </c>
+      <c r="B101" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" t="s">
+        <v>14</v>
+      </c>
+      <c r="E101">
+        <v>198.142</v>
+      </c>
+      <c r="F101">
+        <v>1116401.318058809</v>
+      </c>
+      <c r="G101">
+        <v>4841762.120359655</v>
+      </c>
+      <c r="H101">
+        <v>3986308.386780789</v>
+      </c>
+      <c r="I101">
+        <v>1117340.527205729</v>
+      </c>
+      <c r="J101">
+        <v>4840983.666613457</v>
+      </c>
+      <c r="K101">
+        <v>3982660.701967289</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
+      <c r="A102">
+        <v>24</v>
+      </c>
+      <c r="B102" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102">
+        <v>199.142</v>
+      </c>
+      <c r="F102">
+        <v>1116400.82256602</v>
+      </c>
+      <c r="G102">
+        <v>4841778.633156892</v>
+      </c>
+      <c r="H102">
+        <v>3986315.970493731</v>
+      </c>
+      <c r="I102">
+        <v>1117431.197817773</v>
+      </c>
+      <c r="J102">
+        <v>4840935.015041653</v>
+      </c>
+      <c r="K102">
+        <v>3982267.660096625</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
+      <c r="A103">
+        <v>24</v>
+      </c>
+      <c r="B103" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103">
+        <v>200.142</v>
+      </c>
+      <c r="F103">
+        <v>1116400.345304268</v>
+      </c>
+      <c r="G103">
+        <v>4841795.145954129</v>
+      </c>
+      <c r="H103">
+        <v>3986323.367214895</v>
+      </c>
+      <c r="I103">
+        <v>1117524.101110224</v>
+      </c>
+      <c r="J103">
+        <v>4840886.363469847</v>
+      </c>
+      <c r="K103">
+        <v>3981859.469585679</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
+      <c r="A104">
+        <v>24</v>
+      </c>
+      <c r="B104" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104">
+        <v>201.142</v>
+      </c>
+      <c r="F104">
+        <v>1116399.885182519</v>
+      </c>
+      <c r="G104">
+        <v>4841811.658751367</v>
+      </c>
+      <c r="H104">
+        <v>3986330.585944137</v>
+      </c>
+      <c r="I104">
+        <v>1117619.292060782</v>
+      </c>
+      <c r="J104">
+        <v>4840837.711898044</v>
+      </c>
+      <c r="K104">
+        <v>3981436.130434452</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
+      <c r="A105">
+        <v>24</v>
+      </c>
+      <c r="B105" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" t="s">
+        <v>14</v>
+      </c>
+      <c r="E105">
+        <v>202.142</v>
+      </c>
+      <c r="F105">
+        <v>1116399.441198995</v>
+      </c>
+      <c r="G105">
+        <v>4841828.171548603</v>
+      </c>
+      <c r="H105">
+        <v>3986337.635046813</v>
+      </c>
+      <c r="I105">
+        <v>1117716.827000923</v>
+      </c>
+      <c r="J105">
+        <v>4840789.06032624</v>
+      </c>
+      <c r="K105">
+        <v>3980997.642642942</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
+      <c r="A106">
+        <v>24</v>
+      </c>
+      <c r="B106" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" t="s">
+        <v>14</v>
+      </c>
+      <c r="E106">
+        <v>203.142</v>
+      </c>
+      <c r="F106">
+        <v>1116399.012432007</v>
+      </c>
+      <c r="G106">
+        <v>4841844.68434584</v>
+      </c>
+      <c r="H106">
+        <v>3986344.522312052</v>
+      </c>
+      <c r="I106">
+        <v>1117816.763649234</v>
+      </c>
+      <c r="J106">
+        <v>4840740.408754435</v>
+      </c>
+      <c r="K106">
+        <v>3980544.006211153</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
+      <c r="A107">
+        <v>24</v>
+      </c>
+      <c r="B107" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" t="s">
+        <v>14</v>
+      </c>
+      <c r="E107">
+        <v>204.142</v>
+      </c>
+      <c r="F107">
+        <v>1116398.598031904</v>
+      </c>
+      <c r="G107">
+        <v>4841861.197143078</v>
+      </c>
+      <c r="H107">
+        <v>3986351.2550045</v>
+      </c>
+      <c r="I107">
+        <v>1117919.161145571</v>
+      </c>
+      <c r="J107">
+        <v>4840691.757182631</v>
+      </c>
+      <c r="K107">
+        <v>3980075.221139081</v>
       </c>
     </row>
   </sheetData>
